--- a/Quality_Scoring_Functions/Quality_Functions/MolProbity/Data/Molprobity_First/ColabFold_First_TB.xlsx
+++ b/Quality_Scoring_Functions/Quality_Functions/MolProbity/Data/Molprobity_First/ColabFold_First_TB.xlsx
@@ -1,40 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>pdb_id</t>
+  </si>
+  <si>
+    <t>Cis_nonPro</t>
+  </si>
+  <si>
+    <t>Twisted_peptide</t>
+  </si>
+  <si>
+    <t>Clashscore</t>
+  </si>
+  <si>
+    <t>8b58</t>
+  </si>
+  <si>
+    <t>7z6u</t>
+  </si>
+  <si>
+    <t>7xty</t>
+  </si>
+  <si>
+    <t>8hdj</t>
+  </si>
+  <si>
+    <t>7y8f</t>
+  </si>
+  <si>
+    <t>8afi</t>
+  </si>
+  <si>
+    <t>8d7p</t>
+  </si>
+  <si>
+    <t>8ahs</t>
+  </si>
+  <si>
+    <t>7udl</t>
+  </si>
+  <si>
+    <t>8dgm</t>
+  </si>
+  <si>
+    <t>8cz9</t>
+  </si>
+  <si>
+    <t>7zx4</t>
+  </si>
+  <si>
+    <t>8bft</t>
+  </si>
+  <si>
+    <t>8ccw</t>
+  </si>
+  <si>
+    <t>8fk3</t>
+  </si>
+  <si>
+    <t>8cir</t>
+  </si>
+  <si>
+    <t>7v1a</t>
+  </si>
+  <si>
+    <t>7xv1</t>
+  </si>
+  <si>
+    <t>7wqq</t>
+  </si>
+  <si>
+    <t>7ui8</t>
+  </si>
+  <si>
+    <t>7z5l</t>
+  </si>
+  <si>
+    <t>8ia4</t>
+  </si>
+  <si>
+    <t>7qwv</t>
+  </si>
+  <si>
+    <t>8ia5</t>
+  </si>
+  <si>
+    <t>7sxj</t>
+  </si>
+  <si>
+    <t>8hlo</t>
+  </si>
+  <si>
+    <t>8br9</t>
+  </si>
+  <si>
+    <t>8oep</t>
+  </si>
+  <si>
+    <t>7sxf</t>
+  </si>
+  <si>
+    <t>7r2m</t>
+  </si>
+  <si>
+    <t>7udk</t>
+  </si>
+  <si>
+    <t>7yue</t>
+  </si>
+  <si>
+    <t>7prx</t>
+  </si>
+  <si>
+    <t>8i3g</t>
+  </si>
+  <si>
+    <t>7uw2</t>
+  </si>
+  <si>
+    <t>7zw4</t>
+  </si>
+  <si>
+    <t>8ese</t>
+  </si>
+  <si>
+    <t>7sqa</t>
+  </si>
+  <si>
+    <t>8fxq</t>
+  </si>
+  <si>
+    <t>8czk</t>
+  </si>
+  <si>
+    <t>7z7c</t>
+  </si>
+  <si>
+    <t>8hep</t>
+  </si>
+  <si>
+    <t>8are</t>
+  </si>
+  <si>
+    <t>7x8g</t>
+  </si>
+  <si>
+    <t>8c2p</t>
+  </si>
+  <si>
+    <t>8c3h</t>
+  </si>
+  <si>
+    <t>7qox</t>
+  </si>
+  <si>
+    <t>8dvl</t>
+  </si>
+  <si>
+    <t>7to9</t>
+  </si>
+  <si>
+    <t>8f8z</t>
+  </si>
+  <si>
+    <t>8ebl</t>
+  </si>
+  <si>
+    <t>8ck5</t>
+  </si>
+  <si>
+    <t>7xfg</t>
+  </si>
+  <si>
+    <t>8a68</t>
+  </si>
+  <si>
+    <t>7y9c</t>
+  </si>
+  <si>
+    <t>8d51</t>
+  </si>
+  <si>
+    <t>8eq5</t>
+  </si>
+  <si>
+    <t>7ue2</t>
+  </si>
+  <si>
+    <t>7zax</t>
+  </si>
+  <si>
+    <t>8dwk</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +245,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,19 +562,868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>20.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.59</v>
+      </c>
+      <c r="D13">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.59</v>
+      </c>
+      <c r="D17">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>33.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0.44</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>0.98</v>
+      </c>
+      <c r="C36">
+        <v>2.93</v>
+      </c>
+      <c r="D36">
+        <v>41.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>18.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.26</v>
+      </c>
+      <c r="D41">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.58</v>
+      </c>
+      <c r="D42">
+        <v>59.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.75</v>
+      </c>
+      <c r="D45">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.22</v>
+      </c>
+      <c r="D46">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>49.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.28</v>
+      </c>
+      <c r="D48">
+        <v>19.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.62</v>
+      </c>
+      <c r="D52">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>101.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.37</v>
+      </c>
+      <c r="D56">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>15.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>